--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4619B4FF-865A-4D15-9FD6-F10C596F5B41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBFF4A53-C182-40CC-81F0-F214944BA1B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>43238</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBFF4A53-C182-40CC-81F0-F214944BA1B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48D91D54-84AB-4BDC-88DA-CA84C45BCE8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48D91D54-84AB-4BDC-88DA-CA84C45BCE8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5377218D-0E40-4140-AF08-368D01B8927D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>写约吧模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约吧的实体类,实多对一关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多对一出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决多对一懒加载错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写约吧的JPQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPQL语句不可执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-18:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成多对一的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写JPQL语句</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +513,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,12 +563,52 @@
       <c r="A3" s="1">
         <v>43238</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5377218D-0E40-4140-AF08-368D01B8927D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{130B3E85-2D74-4595-B74D-93C7BFF63CF8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,38 @@
   </si>
   <si>
     <t>重写JPQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写查询语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成查询语句的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service的进一步完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10-13:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,7 +643,38 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{130B3E85-2D74-4595-B74D-93C7BFF63CF8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{477B0423-439F-4065-95C1-C45508963A44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,38 @@
   </si>
   <si>
     <t>12:10-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加studentController,及相关配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写js代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写student的相关js代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分功能写完但是服务器的运行有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑通服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,6 +709,40 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{477B0423-439F-4065-95C1-C45508963A44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2F50196-094F-428D-9F16-64407E64B46F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,22 @@
   </si>
   <si>
     <t>跑通服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:45:-21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加student的madel和store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发布遇到问题,后面解决了该问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把js视图显示出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,6 +759,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2F50196-094F-428D-9F16-64407E64B46F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CA39593-805A-499F-8691-670E53EFE4E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,38 @@
   </si>
   <si>
     <t>把js视图显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改student的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图显示成功,但数据没显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改basecontroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据显示成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善student</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,13 +284,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -776,6 +809,40 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
+++ b/student-service-master/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CA39593-805A-499F-8691-670E53EFE4E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AACE5F21-AAA8-4491-A034-23C1C99A6D41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,22 @@
   </si>
   <si>
     <t>完善student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：30-10：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改student的js 的model和store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -843,6 +859,23 @@
         <v>54</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
